--- a/public/BaseInvestimento2025.xlsx
+++ b/public/BaseInvestimento2025.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eletrobrasroraima-my.sharepoint.com/personal/thacito_carneiro_roraimaenergia_com_br/Documents/SUBESTAÇÕES OBRAS/COORDENAÇÃO/CRONOGRAMAS/CRONOGRAMAS_2025/2025F/maycon-dash-dev/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{F879B00A-4DBA-41AC-B543-6BE8F5827FE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{350BB355-9617-4EC4-B15D-F7C6DFFFB123}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="8_{F879B00A-4DBA-41AC-B543-6BE8F5827FE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5125EE31-BB46-4C97-9B02-C25432C75A3E}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{88979A36-D192-4CA3-818C-122EAE81BF93}"/>
+    <workbookView xWindow="28680" yWindow="795" windowWidth="29040" windowHeight="15840" xr2:uid="{88979A36-D192-4CA3-818C-122EAE81BF93}"/>
   </bookViews>
   <sheets>
     <sheet name="2025" sheetId="4" r:id="rId1"/>
@@ -97,76 +97,76 @@
     <t>R200_DTE0021</t>
   </si>
   <si>
-    <t>DTE-01</t>
-  </si>
-  <si>
     <t>LD - Construção LD PV-CE para SE Paraviana 69kV, 11km</t>
   </si>
   <si>
-    <t>DTE-03</t>
-  </si>
-  <si>
     <t>SED - Ampliação SECE - 1 EL 69KV - LD PVCE C1 69KV</t>
   </si>
   <si>
-    <t>DTE-04</t>
-  </si>
-  <si>
     <t>SED - Construção da SE Paraviana - 1EL 69kV, 2TR 69/13,8kV 20MVA,8EL 13,8V</t>
   </si>
   <si>
-    <t>DTE-05</t>
-  </si>
-  <si>
     <t>LD - Construção LD CD ST-CB E CB-FT para o Seccionamento da BVFT C1, 10,4 km (PROJETO)</t>
   </si>
   <si>
-    <t>DTE-06</t>
-  </si>
-  <si>
     <t>LD - Construção LD PV-BV para SE Paraviana 69kV, 7km (PROJETO)</t>
   </si>
   <si>
-    <t>DTE-07</t>
-  </si>
-  <si>
     <t>SED - Ampliação da SECB - Construção de 2xEL 69kV na SE Caburaí - LD CB/ST e LD CB/FT</t>
   </si>
   <si>
-    <t>DTE-10</t>
-  </si>
-  <si>
     <t>SED - Ampliação da SE Rorainópolis - 1 TR 69/34,5 KV 5MVA;EL 34,5KV; 1TAT.69kV + Modernização SPCS (REAVALIAR OS VALORES)</t>
   </si>
   <si>
-    <t>DTE-11</t>
-  </si>
-  <si>
     <t>SED - Construção da Subestação Nova Colina 34,5/13,8kV (Recebida da CERR) + TR5MVA 34,5/13,8kV</t>
   </si>
   <si>
-    <t>DTE-13</t>
-  </si>
-  <si>
     <t>SED - Ampliação SE Sucuba - EL 34,5kV, CT 69kV e TR 69/34,5 2,5MVA</t>
   </si>
   <si>
-    <t>DTE-14</t>
-  </si>
-  <si>
     <t>SED - SE Baliza - Instalação de 1 Transformador de Aterramento de 2,5MVA + Recondutoramento do barramento 13,8 kV</t>
   </si>
   <si>
-    <t>DTE-20</t>
-  </si>
-  <si>
     <t>SED - Retrofit 87L (implementar proteção de linha LT-BV-CE e LT-BV-FT-C1)</t>
   </si>
   <si>
-    <t>DTE-21</t>
-  </si>
-  <si>
     <t>SED - Ampliação da SE Caracaraí (realização do comissionamento)</t>
+  </si>
+  <si>
+    <t>DTE-02</t>
+  </si>
+  <si>
+    <t>DTE-28</t>
+  </si>
+  <si>
+    <t>DTE-29</t>
+  </si>
+  <si>
+    <t>DTE-34</t>
+  </si>
+  <si>
+    <t>DTE-35</t>
+  </si>
+  <si>
+    <t>DTE-36</t>
+  </si>
+  <si>
+    <t>DTE-24</t>
+  </si>
+  <si>
+    <t>DTE-30</t>
+  </si>
+  <si>
+    <t>DTE-27</t>
+  </si>
+  <si>
+    <t>DTE-25</t>
+  </si>
+  <si>
+    <t>DTE-31</t>
+  </si>
+  <si>
+    <t>DTE-22</t>
   </si>
 </sst>
 </file>
@@ -345,16 +345,16 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="17" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -695,7 +695,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -722,13 +722,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2" s="7">
         <v>13558526.541999999</v>
@@ -736,13 +736,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D3" s="7">
         <v>3981419.5660000001</v>
@@ -750,13 +750,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D4" s="7">
         <v>22976890.393199999</v>
@@ -764,13 +764,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D5" s="7">
         <v>200000</v>
@@ -778,13 +778,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D6" s="7">
         <v>638141.84299999999</v>
@@ -792,13 +792,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D7" s="7">
         <v>589399.73699999996</v>
@@ -806,13 +806,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D8" s="7">
         <v>14183070.659150001</v>
@@ -820,13 +820,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D9" s="7">
         <v>1250658.65316</v>
@@ -834,13 +834,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D10" s="7">
         <v>6455044.6564999996</v>
@@ -848,13 +848,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D11" s="7">
         <v>2255829.5</v>
@@ -862,13 +862,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="D12" s="7">
         <v>387532</v>
@@ -876,13 +876,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D13" s="7">
         <v>245323.63</v>

--- a/public/BaseInvestimento2025.xlsx
+++ b/public/BaseInvestimento2025.xlsx
@@ -695,7 +695,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
